--- a/paralg/u2/a3.xlsx
+++ b/paralg/u2/a3.xlsx
@@ -9,17 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25035" windowHeight="5985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25035" windowHeight="5985" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Runtime over Probem size" sheetId="2" r:id="rId1"/>
     <sheet name="Speedup over Core count" sheetId="3" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,11 +85,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -110,7 +108,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -173,7 +171,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -249,39 +247,44 @@
             <c:numRef>
               <c:f>Data!$B$2:$J$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.8200000000000002E-4</c:v>
+                  <c:v>1.0039999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.052E-3</c:v>
+                  <c:v>2.0379999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5739999999999999E-3</c:v>
+                  <c:v>4.3249999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9299999999999996E-3</c:v>
+                  <c:v>9.1809999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9841000000000001E-2</c:v>
+                  <c:v>1.8430999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9182000000000002E-2</c:v>
+                  <c:v>3.6840999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3306999999999997E-2</c:v>
+                  <c:v>7.2583999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13095900000000002</c:v>
+                  <c:v>0.15066299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26222300000000004</c:v>
+                  <c:v>0.317162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27B9-44B9-9CC1-D1EE3AF5853A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -341,39 +344,44 @@
             <c:numRef>
               <c:f>Data!$B$4:$J$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.1348E-2</c:v>
+                  <c:v>4.1250000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2960000000000004E-3</c:v>
+                  <c:v>6.1019999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2633000000000002E-2</c:v>
+                  <c:v>1.2219000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5411000000000003E-2</c:v>
+                  <c:v>2.4607E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0774E-2</c:v>
+                  <c:v>4.9215000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.4738199999999995E-2</c:v>
+                  <c:v>9.5004000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17567500000000003</c:v>
+                  <c:v>0.17197399999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34139400000000003</c:v>
+                  <c:v>0.34460099999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68269500000000005</c:v>
+                  <c:v>0.690025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27B9-44B9-9CC1-D1EE3AF5853A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -433,39 +441,44 @@
             <c:numRef>
               <c:f>Data!$B$5:$J$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.5170000000000002E-3</c:v>
+                  <c:v>3.3639999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5270000000000007E-3</c:v>
+                  <c:v>5.4299999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1158999999999999E-2</c:v>
+                  <c:v>1.0867E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2408999999999998E-2</c:v>
+                  <c:v>2.5055000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5167000000000006E-2</c:v>
+                  <c:v>5.0109000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8688999999999995E-2</c:v>
+                  <c:v>9.9843000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.147199</c:v>
+                  <c:v>0.15409999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30194500000000002</c:v>
+                  <c:v>0.31679200000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57971099999999998</c:v>
+                  <c:v>0.64734999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-27B9-44B9-9CC1-D1EE3AF5853A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -525,39 +538,44 @@
             <c:numRef>
               <c:f>Data!$B$6:$J$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.392E-3</c:v>
+                  <c:v>3.5400000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7560000000000002E-3</c:v>
+                  <c:v>3.0769999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5430000000000002E-3</c:v>
+                  <c:v>6.1890000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1176E-2</c:v>
+                  <c:v>1.2478E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3867000000000003E-2</c:v>
+                  <c:v>3.5166000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0964999999999996E-2</c:v>
+                  <c:v>4.1009999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8034000000000001E-2</c:v>
+                  <c:v>7.7605999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16189800000000001</c:v>
+                  <c:v>0.15806200000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34152900000000003</c:v>
+                  <c:v>0.35825000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-27B9-44B9-9CC1-D1EE3AF5853A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -617,39 +635,44 @@
             <c:numRef>
               <c:f>Data!$B$7:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.382E-3</c:v>
+                  <c:v>1.7960000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8270000000000001E-3</c:v>
+                  <c:v>1.58E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2209999999999999E-3</c:v>
+                  <c:v>3.0999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0798E-2</c:v>
+                  <c:v>6.2830000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2031000000000002E-2</c:v>
+                  <c:v>1.268E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4173999999999996E-2</c:v>
+                  <c:v>2.3573E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3756999999999999E-2</c:v>
+                  <c:v>4.6258000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.113608</c:v>
+                  <c:v>9.8918000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22345800000000005</c:v>
+                  <c:v>0.19304499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-27B9-44B9-9CC1-D1EE3AF5853A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -709,39 +732,44 @@
             <c:numRef>
               <c:f>Data!$B$8:$J$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.8639999999999998E-3</c:v>
+                  <c:v>9.2400000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2210000000000003E-3</c:v>
+                  <c:v>8.5099999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8470000000000001E-3</c:v>
+                  <c:v>1.7049999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6280000000000002E-3</c:v>
+                  <c:v>8.7609999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6330000000000001E-2</c:v>
+                  <c:v>1.2515999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0207000000000001E-2</c:v>
+                  <c:v>1.6719999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1169000000000006E-2</c:v>
+                  <c:v>3.0432000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10885100000000002</c:v>
+                  <c:v>6.5800999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21984700000000001</c:v>
+                  <c:v>0.129889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-27B9-44B9-9CC1-D1EE3AF5853A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -803,39 +831,44 @@
             <c:numRef>
               <c:f>Data!$B$9:$J$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.1575000000000006E-2</c:v>
+                  <c:v>5.5699999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.12E-4</c:v>
+                  <c:v>4.4200000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5550000000000002E-3</c:v>
+                  <c:v>8.6399999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2590000000000002E-3</c:v>
+                  <c:v>3.2190000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2164999999999999E-2</c:v>
+                  <c:v>6.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5857000000000002E-2</c:v>
+                  <c:v>1.3990000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2798999999999999E-2</c:v>
+                  <c:v>2.7576E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.109516</c:v>
+                  <c:v>5.2602000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.220552</c:v>
+                  <c:v>0.13248199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-27B9-44B9-9CC1-D1EE3AF5853A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -897,39 +930,44 @@
             <c:numRef>
               <c:f>Data!$B$10:$J$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.7113000000000002E-2</c:v>
+                  <c:v>4.7399999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3400000000000006E-4</c:v>
+                  <c:v>3.6999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3450000000000001E-3</c:v>
+                  <c:v>7.2599999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8219999999999999E-3</c:v>
+                  <c:v>2.751E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1078000000000001E-2</c:v>
+                  <c:v>6.5160000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3782999999999999E-2</c:v>
+                  <c:v>1.2238000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9172E-2</c:v>
+                  <c:v>2.4396999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10262500000000002</c:v>
+                  <c:v>4.6998999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20632700000000004</c:v>
+                  <c:v>0.117656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-27B9-44B9-9CC1-D1EE3AF5853A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -991,39 +1029,44 @@
             <c:numRef>
               <c:f>Data!$B$11:$J$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8.9018E-2</c:v>
+                  <c:v>3.9973000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8300000000000001E-4</c:v>
+                  <c:v>5.4900000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.093E-3</c:v>
+                  <c:v>1.255E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4549999999999998E-3</c:v>
+                  <c:v>2.3479999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5297999999999998E-2</c:v>
+                  <c:v>8.0859999999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.024E-2</c:v>
+                  <c:v>2.3066E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7779000000000006E-2</c:v>
+                  <c:v>3.7600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12332000000000001</c:v>
+                  <c:v>8.5649000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23006700000000002</c:v>
+                  <c:v>0.10686900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-27B9-44B9-9CC1-D1EE3AF5853A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1114,7 +1157,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1152,7 +1195,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="381004080"/>
@@ -1232,11 +1275,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1270,7 +1313,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="381008784"/>
@@ -1313,7 +1356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1343,7 +1386,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1352,7 +1395,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1415,7 +1458,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1503,33 +1546,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8.6535072259428969E-2</c:v>
+                  <c:v>0.24339393939393936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15068282952278655</c:v>
+                  <c:v>0.29845422116527942</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28950471698113206</c:v>
+                  <c:v>0.2836158192090395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41225860621326615</c:v>
+                  <c:v>0.55902004454342979</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25414078674948243</c:v>
+                  <c:v>1.0865800865800865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1100554235946154E-2</c:v>
+                  <c:v>1.8025134649910233</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6218788035259838E-2</c:v>
+                  <c:v>2.1181434599156117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1031476779977083E-2</c:v>
+                  <c:v>2.5116953943912137E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEDF-4CAE-A8AF-C2974FFB78E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1609,33 +1657,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.32592121982210925</c:v>
+                  <c:v>0.33398885611274992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37126831916048486</c:v>
+                  <c:v>0.37532228360957642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7445573294629898</c:v>
+                  <c:v>0.66233344166395836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1231527093596059</c:v>
+                  <c:v>1.289873417721519</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92390814948221511</c:v>
+                  <c:v>2.3948296122209163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5270935960591134</c:v>
+                  <c:v>4.6108597285067869</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7956403269754766</c:v>
+                  <c:v>5.5081081081081082</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0043923865300144</c:v>
+                  <c:v>3.7122040072859743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AEDF-4CAE-A8AF-C2974FFB78E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1715,33 +1768,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.36206760072825134</c:v>
+                  <c:v>0.35395695228742119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4098933596200377</c:v>
+                  <c:v>0.39799392656666971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82518491791448667</c:v>
+                  <c:v>0.69882048796251406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0836294716891732</c:v>
+                  <c:v>1.3951612903225807</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6066034422198805</c:v>
+                  <c:v>2.5366568914956011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9414790996784563</c:v>
+                  <c:v>5.0057870370370372</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4007434944237915</c:v>
+                  <c:v>5.9573002754820941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1848124428179325</c:v>
+                  <c:v>3.4462151394422307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AEDF-4CAE-A8AF-C2974FFB78E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1821,33 +1879,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.39077564834126949</c:v>
+                  <c:v>0.37310521396350632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44312552992101389</c:v>
+                  <c:v>0.3664338455398124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88851109520400851</c:v>
+                  <c:v>0.7357749639365283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91961474347101313</c:v>
+                  <c:v>1.4612446283622473</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7643923240938164</c:v>
+                  <c:v>1.0479397329072024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0469469162319727</c:v>
+                  <c:v>2.8521279900590244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7055994503607008</c:v>
+                  <c:v>3.3373318793166122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5383423702556158</c:v>
+                  <c:v>3.9101362862010225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AEDF-4CAE-A8AF-C2974FFB78E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1927,33 +1990,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.39077086697916258</c:v>
+                  <c:v>0.3744996444173524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43928089091593414</c:v>
+                  <c:v>0.36781815641900656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83131520509490087</c:v>
+                  <c:v>0.52411420121708463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9005946166765012</c:v>
+                  <c:v>1.4535488958990535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.215003061849357</c:v>
+                  <c:v>1.4725950782997763</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6309905466502264</c:v>
+                  <c:v>2.7508955223880593</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7910272612384905</c:v>
+                  <c:v>2.828575813382443</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.78429124832002539</c:v>
+                  <c:v>2.2793717536482809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AEDF-4CAE-A8AF-C2974FFB78E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2033,33 +2101,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.41358184977126444</c:v>
+                  <c:v>0.38778367226643085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49793490830992904</c:v>
+                  <c:v>0.36898931322175815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76880211910134411</c:v>
+                  <c:v>0.8983418678371129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1465441563761927</c:v>
+                  <c:v>1.5628473253298265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2971165623862018</c:v>
+                  <c:v>2.2034090909090911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5153343388637506</c:v>
+                  <c:v>2.6333809864188704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6474792919312116</c:v>
+                  <c:v>3.0103775126654679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77989649681528661</c:v>
+                  <c:v>1.5971993410214167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AEDF-4CAE-A8AF-C2974FFB78E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2145,33 +2218,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.41728760495232664</c:v>
+                  <c:v>0.42206380034191215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49801289410933497</c:v>
+                  <c:v>0.4710188189487346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83271236113319846</c:v>
+                  <c:v>0.93528850862046753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3636735680934575</c:v>
+                  <c:v>1.5691123697522589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4326447653852916</c:v>
+                  <c:v>2.3851209253417451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3884164472811984</c:v>
+                  <c:v>2.632143893240499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4908281135605628</c:v>
+                  <c:v>2.9751198917899742</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0815591849983033</c:v>
+                  <c:v>1.9304255319148935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AEDF-4CAE-A8AF-C2974FFB78E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2257,33 +2335,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.38360076627005751</c:v>
+                  <c:v>0.43720999068487904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4337180612363179</c:v>
+                  <c:v>0.47558966135508468</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80889819515991557</c:v>
+                  <c:v>0.95318925484936279</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1527269206393918</c:v>
+                  <c:v>1.5231100507491051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2031033247282983</c:v>
+                  <c:v>2.28967644868619</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1957978742832098</c:v>
+                  <c:v>2.8642066841564957</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2760925700365406</c:v>
+                  <c:v>3.2056639502968145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0619445345442751</c:v>
+                  <c:v>1.7590748286611635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AEDF-4CAE-A8AF-C2974FFB78E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2369,33 +2452,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.38409978101494813</c:v>
+                  <c:v>0.459638418897866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45233400780733857</c:v>
+                  <c:v>0.48993898200355296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76779131493958064</c:v>
+                  <c:v>0.88530914166085128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1734777900097557</c:v>
+                  <c:v>1.6429433551762542</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1927522322342357</c:v>
+                  <c:v>2.4417926075341252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1889395698066672</c:v>
+                  <c:v>2.3940006944339611</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2709097694436502</c:v>
+                  <c:v>2.6956721289182024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1397679806317291</c:v>
+                  <c:v>2.9677642721462725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AEDF-4CAE-A8AF-C2974FFB78E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2481,7 +2569,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2519,7 +2607,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="597183792"/>
@@ -2604,7 +2692,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2642,7 +2730,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="597178304"/>
@@ -2685,7 +2773,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2715,7 +2803,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3848,7 +3936,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3886,7 +3974,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294395" cy="6005763"/>
+    <xdr:ext cx="9300882" cy="6075189"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -3907,243 +3995,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Runtime over Problem size"/>
-      <sheetName val="Speedup over Core count"/>
-      <sheetName val="Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1">
-            <v>1048576</v>
-          </cell>
-          <cell r="C1">
-            <v>2097152</v>
-          </cell>
-          <cell r="D1">
-            <v>4194304</v>
-          </cell>
-          <cell r="E1">
-            <v>8388608</v>
-          </cell>
-          <cell r="F1">
-            <v>16777216</v>
-          </cell>
-          <cell r="G1">
-            <v>33554432</v>
-          </cell>
-          <cell r="H1">
-            <v>67108864</v>
-          </cell>
-          <cell r="I1">
-            <v>134217728</v>
-          </cell>
-          <cell r="J1">
-            <v>268435456</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1</v>
-          </cell>
-          <cell r="B11">
-            <v>4.8116244670669106E-2</v>
-          </cell>
-          <cell r="C11">
-            <v>9.7560975609756087E-2</v>
-          </cell>
-          <cell r="D11">
-            <v>0.10253031101739589</v>
-          </cell>
-          <cell r="E11">
-            <v>0.16939890710382513</v>
-          </cell>
-          <cell r="F11">
-            <v>0.16647345235335034</v>
-          </cell>
-          <cell r="G11">
-            <v>0.17006098350171683</v>
-          </cell>
-          <cell r="H11">
-            <v>0.17653563529999286</v>
-          </cell>
-          <cell r="I11">
-            <v>0.16978811505050748</v>
-          </cell>
-          <cell r="J11">
-            <v>0.16739682013616081</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>2</v>
-          </cell>
-          <cell r="B12">
-            <v>0.13932980599647266</v>
-          </cell>
-          <cell r="C12">
-            <v>0.1998306519898391</v>
-          </cell>
-          <cell r="D12">
-            <v>0.17986359958386314</v>
-          </cell>
-          <cell r="E12">
-            <v>0.32285868198958523</v>
-          </cell>
-          <cell r="F12">
-            <v>0.32301601583588269</v>
-          </cell>
-          <cell r="G12">
-            <v>0.33277218282581489</v>
-          </cell>
-          <cell r="H12">
-            <v>0.34522554642691056</v>
-          </cell>
-          <cell r="I12">
-            <v>0.31685874047046958</v>
-          </cell>
-          <cell r="J12">
-            <v>0.31598496299751067</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>4</v>
-          </cell>
-          <cell r="B13">
-            <v>0.26805622879301982</v>
-          </cell>
-          <cell r="C13">
-            <v>0.27335907335907339</v>
-          </cell>
-          <cell r="D13">
-            <v>0.30467985118464852</v>
-          </cell>
-          <cell r="E13">
-            <v>0.5785070785070785</v>
-          </cell>
-          <cell r="F13">
-            <v>0.61238414738158875</v>
-          </cell>
-          <cell r="G13">
-            <v>0.59844608171466851</v>
-          </cell>
-          <cell r="H13">
-            <v>0.59253691632300121</v>
-          </cell>
-          <cell r="I13">
-            <v>0.58348412118563631</v>
-          </cell>
-          <cell r="J13">
-            <v>0.61425949795731105</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>8</v>
-          </cell>
-          <cell r="B14">
-            <v>0.34889589905362778</v>
-          </cell>
-          <cell r="C14">
-            <v>0.35902636916835701</v>
-          </cell>
-          <cell r="D14">
-            <v>0.42865013774104688</v>
-          </cell>
-          <cell r="E14">
-            <v>0.84771334276284782</v>
-          </cell>
-          <cell r="F14">
-            <v>0.81988428745432396</v>
-          </cell>
-          <cell r="G14">
-            <v>1.0214468629961588</v>
-          </cell>
-          <cell r="H14">
-            <v>1.1105819578117986</v>
-          </cell>
-          <cell r="I14">
-            <v>1.0220183705688177</v>
-          </cell>
-          <cell r="J14">
-            <v>1.0395550899679564</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>16</v>
-          </cell>
-          <cell r="B15">
-            <v>0.23867069486404832</v>
-          </cell>
-          <cell r="C15">
-            <v>0.34739941118743867</v>
-          </cell>
-          <cell r="D15">
-            <v>0.42841409691629961</v>
-          </cell>
-          <cell r="E15">
-            <v>0.8387498056289846</v>
-          </cell>
-          <cell r="F15">
-            <v>0.88054942359578114</v>
-          </cell>
-          <cell r="G15">
-            <v>1.0379164536963896</v>
-          </cell>
-          <cell r="H15">
-            <v>1.0615615615615615</v>
-          </cell>
-          <cell r="I15">
-            <v>1.0631391674338748</v>
-          </cell>
-          <cell r="J15">
-            <v>1.0805726364335126</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>32</v>
-          </cell>
-          <cell r="B16">
-            <v>8.3630754340330293E-3</v>
-          </cell>
-          <cell r="C16">
-            <v>0.29760403530895335</v>
-          </cell>
-          <cell r="D16">
-            <v>0.35565714285714284</v>
-          </cell>
-          <cell r="E16">
-            <v>0.73890410958904118</v>
-          </cell>
-          <cell r="F16">
-            <v>0.88191942351785124</v>
-          </cell>
-          <cell r="G16">
-            <v>1.053980087764828</v>
-          </cell>
-          <cell r="H16">
-            <v>1.1624344285826136</v>
-          </cell>
-          <cell r="I16">
-            <v>1.16251513461303</v>
-          </cell>
-          <cell r="J16">
-            <v>1.1290482341366779</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4192,9 +4043,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -4227,9 +4078,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -4411,11 +4262,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4453,32 +4304,32 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>9.8200000000000002E-4</v>
-      </c>
-      <c r="C2">
-        <v>2.052E-3</v>
-      </c>
-      <c r="D2">
-        <v>4.5739999999999999E-3</v>
-      </c>
-      <c r="E2">
-        <v>9.9299999999999996E-3</v>
-      </c>
-      <c r="F2">
-        <v>1.9841000000000001E-2</v>
-      </c>
-      <c r="G2">
-        <v>3.9182000000000002E-2</v>
-      </c>
-      <c r="H2">
-        <v>7.3306999999999997E-2</v>
-      </c>
-      <c r="I2">
-        <v>0.13095900000000002</v>
-      </c>
-      <c r="J2">
-        <v>0.26222300000000004</v>
+      <c r="B2" s="1">
+        <v>1.0039999999999999E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0379999999999999E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.3249999999999999E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9.1809999999999999E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.8430999999999999E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.6840999999999999E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7.2583999999999996E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.15066299999999999</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.317162</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4490,256 +4341,256 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>1.1348E-2</v>
-      </c>
-      <c r="C4">
-        <v>6.2960000000000004E-3</v>
-      </c>
-      <c r="D4">
-        <v>1.2633000000000002E-2</v>
-      </c>
-      <c r="E4">
-        <v>2.5411000000000003E-2</v>
-      </c>
-      <c r="F4">
-        <v>5.0774E-2</v>
-      </c>
-      <c r="G4">
-        <v>9.4738199999999995E-2</v>
-      </c>
-      <c r="H4">
-        <v>0.17567500000000003</v>
-      </c>
-      <c r="I4">
-        <v>0.34139400000000003</v>
-      </c>
-      <c r="J4">
-        <v>0.68269500000000005</v>
+      <c r="B4" s="1">
+        <v>4.1250000000000002E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.1019999999999998E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.2219000000000001E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.4607E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.9215000000000002E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9.5004000000000005E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.17197399999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.34460099999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.690025</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>6.5170000000000002E-3</v>
-      </c>
-      <c r="C5">
-        <v>5.5270000000000007E-3</v>
-      </c>
-      <c r="D5">
-        <v>1.1158999999999999E-2</v>
-      </c>
-      <c r="E5">
-        <v>2.2408999999999998E-2</v>
-      </c>
-      <c r="F5">
-        <v>4.5167000000000006E-2</v>
-      </c>
-      <c r="G5">
-        <v>7.8688999999999995E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.147199</v>
-      </c>
-      <c r="I5">
-        <v>0.30194500000000002</v>
-      </c>
-      <c r="J5">
-        <v>0.57971099999999998</v>
+      <c r="B5" s="1">
+        <v>3.3639999999999998E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.4299999999999999E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0867E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.5055000000000001E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.0109000000000001E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9.9843000000000001E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.31679200000000002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.64734999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>3.392E-3</v>
-      </c>
-      <c r="C6">
-        <v>2.7560000000000002E-3</v>
-      </c>
-      <c r="D6">
-        <v>5.5430000000000002E-3</v>
-      </c>
-      <c r="E6">
-        <v>1.1176E-2</v>
-      </c>
-      <c r="F6">
-        <v>2.3867000000000003E-2</v>
-      </c>
-      <c r="G6">
-        <v>5.0964999999999996E-2</v>
-      </c>
-      <c r="H6">
-        <v>8.8034000000000001E-2</v>
-      </c>
-      <c r="I6">
-        <v>0.16189800000000001</v>
-      </c>
-      <c r="J6">
-        <v>0.34152900000000003</v>
+      <c r="B6" s="1">
+        <v>3.5400000000000002E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.0769999999999999E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.1890000000000001E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.2478E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.5166000000000003E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.1009999999999998E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.7605999999999994E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.15806200000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.35825000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>2.382E-3</v>
-      </c>
-      <c r="C7">
-        <v>1.8270000000000001E-3</v>
-      </c>
-      <c r="D7">
-        <v>4.2209999999999999E-3</v>
-      </c>
-      <c r="E7">
-        <v>1.0798E-2</v>
-      </c>
-      <c r="F7">
-        <v>2.2031000000000002E-2</v>
-      </c>
-      <c r="G7">
-        <v>3.4173999999999996E-2</v>
-      </c>
-      <c r="H7">
-        <v>5.3756999999999999E-2</v>
-      </c>
-      <c r="I7">
-        <v>0.113608</v>
-      </c>
-      <c r="J7">
-        <v>0.22345800000000005</v>
+      <c r="B7" s="1">
+        <v>1.7960000000000001E-3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.58E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6.2830000000000004E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.268E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.3573E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4.6258000000000001E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9.8918000000000006E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.19304499999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>3.8639999999999998E-3</v>
-      </c>
-      <c r="C8">
-        <v>2.2210000000000003E-3</v>
-      </c>
-      <c r="D8">
-        <v>2.8470000000000001E-3</v>
-      </c>
-      <c r="E8">
-        <v>5.6280000000000002E-3</v>
-      </c>
-      <c r="F8">
-        <v>1.6330000000000001E-2</v>
-      </c>
-      <c r="G8">
-        <v>3.0207000000000001E-2</v>
-      </c>
-      <c r="H8">
-        <v>5.1169000000000006E-2</v>
-      </c>
-      <c r="I8">
-        <v>0.10885100000000002</v>
-      </c>
-      <c r="J8">
-        <v>0.21984700000000001</v>
+      <c r="B8" s="1">
+        <v>9.2400000000000002E-4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8.5099999999999998E-4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.7049999999999999E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8.7609999999999997E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.2515999999999999E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.6719999999999999E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.0432000000000001E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6.5800999999999998E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.129889</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9">
-        <v>3.1575000000000006E-2</v>
-      </c>
-      <c r="C9">
-        <v>8.12E-4</v>
-      </c>
-      <c r="D9">
-        <v>1.5550000000000002E-3</v>
-      </c>
-      <c r="E9">
-        <v>3.2590000000000002E-3</v>
-      </c>
-      <c r="F9">
-        <v>1.2164999999999999E-2</v>
-      </c>
-      <c r="G9">
-        <v>2.5857000000000002E-2</v>
-      </c>
-      <c r="H9">
-        <v>5.2798999999999999E-2</v>
-      </c>
-      <c r="I9">
-        <v>0.109516</v>
-      </c>
-      <c r="J9">
-        <v>0.220552</v>
+      <c r="B9" s="1">
+        <v>5.5699999999999999E-4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.4200000000000001E-4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8.6399999999999997E-4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.2190000000000001E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.3990000000000001E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.7576E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5.2602000000000003E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.13248199999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>38</v>
       </c>
-      <c r="B10">
-        <v>2.7113000000000002E-2</v>
-      </c>
-      <c r="C10">
-        <v>7.3400000000000006E-4</v>
-      </c>
-      <c r="D10">
-        <v>1.3450000000000001E-3</v>
-      </c>
-      <c r="E10">
-        <v>5.8219999999999999E-3</v>
-      </c>
-      <c r="F10">
-        <v>1.1078000000000001E-2</v>
-      </c>
-      <c r="G10">
-        <v>2.3782999999999999E-2</v>
-      </c>
-      <c r="H10">
-        <v>4.9172E-2</v>
-      </c>
-      <c r="I10">
-        <v>0.10262500000000002</v>
-      </c>
-      <c r="J10">
-        <v>0.20632700000000004</v>
+      <c r="B10" s="1">
+        <v>4.7399999999999997E-4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.2599999999999997E-4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.751E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6.5160000000000001E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.2238000000000001E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.4396999999999999E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4.6998999999999999E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.117656</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>56</v>
       </c>
-      <c r="B11">
-        <v>8.9018E-2</v>
-      </c>
-      <c r="C11">
-        <v>6.8300000000000001E-4</v>
-      </c>
-      <c r="D11">
-        <v>1.093E-3</v>
-      </c>
-      <c r="E11">
-        <v>6.4549999999999998E-3</v>
-      </c>
-      <c r="F11">
-        <v>2.5297999999999998E-2</v>
-      </c>
-      <c r="G11">
-        <v>5.024E-2</v>
-      </c>
-      <c r="H11">
-        <v>6.7779000000000006E-2</v>
-      </c>
-      <c r="I11">
-        <v>0.12332000000000001</v>
-      </c>
-      <c r="J11">
-        <v>0.23006700000000002</v>
+      <c r="B11" s="1">
+        <v>3.9973000000000002E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.4900000000000001E-4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.255E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.3479999999999998E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8.0859999999999994E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.3066E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8.5649000000000003E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.10686900000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4753,39 +4604,39 @@
       </c>
       <c r="B13">
         <f>B$2/B4</f>
-        <v>8.6535072259428969E-2</v>
+        <v>0.24339393939393936</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:J13" si="0">C$2/C4</f>
-        <v>0.32592121982210925</v>
+        <v>0.33398885611274992</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.36206760072825134</v>
+        <v>0.35395695228742119</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.39077564834126949</v>
+        <v>0.37310521396350632</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0.39077086697916258</v>
+        <v>0.3744996444173524</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.41358184977126444</v>
+        <v>0.38778367226643085</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.41728760495232664</v>
+        <v>0.42206380034191215</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0.38360076627005751</v>
+        <v>0.43720999068487904</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0.38409978101494813</v>
+        <v>0.459638418897866</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4794,39 +4645,39 @@
       </c>
       <c r="B14">
         <f t="shared" ref="B14:J20" si="1">B$2/B5</f>
-        <v>0.15068282952278655</v>
+        <v>0.29845422116527942</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>0.37126831916048486</v>
+        <v>0.37532228360957642</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>0.4098933596200377</v>
+        <v>0.39799392656666971</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0.44312552992101389</v>
+        <v>0.3664338455398124</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.43928089091593414</v>
+        <v>0.36781815641900656</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>0.49793490830992904</v>
+        <v>0.36898931322175815</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.49801289410933497</v>
+        <v>0.4710188189487346</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>0.4337180612363179</v>
+        <v>0.47558966135508468</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>0.45233400780733857</v>
+        <v>0.48993898200355296</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4835,39 +4686,39 @@
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>0.28950471698113206</v>
+        <v>0.2836158192090395</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>0.7445573294629898</v>
+        <v>0.66233344166395836</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>0.82518491791448667</v>
+        <v>0.69882048796251406</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.88851109520400851</v>
+        <v>0.7357749639365283</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.83131520509490087</v>
+        <v>0.52411420121708463</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0.76880211910134411</v>
+        <v>0.8983418678371129</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.83271236113319846</v>
+        <v>0.93528850862046753</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>0.80889819515991557</v>
+        <v>0.95318925484936279</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>0.76779131493958064</v>
+        <v>0.88530914166085128</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4876,39 +4727,39 @@
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>0.41225860621326615</v>
+        <v>0.55902004454342979</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>1.1231527093596059</v>
+        <v>1.289873417721519</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>1.0836294716891732</v>
+        <v>1.3951612903225807</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>0.91961474347101313</v>
+        <v>1.4612446283622473</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0.9005946166765012</v>
+        <v>1.4535488958990535</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>1.1465441563761927</v>
+        <v>1.5628473253298265</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>1.3636735680934575</v>
+        <v>1.5691123697522589</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>1.1527269206393918</v>
+        <v>1.5231100507491051</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>1.1734777900097557</v>
+        <v>1.6429433551762542</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4917,39 +4768,39 @@
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>0.25414078674948243</v>
+        <v>1.0865800865800865</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>0.92390814948221511</v>
+        <v>2.3948296122209163</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>1.6066034422198805</v>
+        <v>2.5366568914956011</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>1.7643923240938164</v>
+        <v>1.0479397329072024</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>1.215003061849357</v>
+        <v>1.4725950782997763</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>1.2971165623862018</v>
+        <v>2.2034090909090911</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>1.4326447653852916</v>
+        <v>2.3851209253417451</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>1.2031033247282983</v>
+        <v>2.28967644868619</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>1.1927522322342357</v>
+        <v>2.4417926075341252</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4958,39 +4809,39 @@
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>3.1100554235946154E-2</v>
+        <v>1.8025134649910233</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>2.5270935960591134</v>
+        <v>4.6108597285067869</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>2.9414790996784563</v>
+        <v>5.0057870370370372</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>3.0469469162319727</v>
+        <v>2.8521279900590244</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>1.6309905466502264</v>
+        <v>2.7508955223880593</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>1.5153343388637506</v>
+        <v>2.6333809864188704</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>1.3884164472811984</v>
+        <v>2.632143893240499</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>1.1957978742832098</v>
+        <v>2.8642066841564957</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>1.1889395698066672</v>
+        <v>2.3940006944339611</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4999,39 +4850,39 @@
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>3.6218788035259838E-2</v>
+        <v>2.1181434599156117</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>2.7956403269754766</v>
+        <v>5.5081081081081082</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>3.4007434944237915</v>
+        <v>5.9573002754820941</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>1.7055994503607008</v>
+        <v>3.3373318793166122</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>1.7910272612384905</v>
+        <v>2.828575813382443</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>1.6474792919312116</v>
+        <v>3.0103775126654679</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>1.4908281135605628</v>
+        <v>2.9751198917899742</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>1.2760925700365406</v>
+        <v>3.2056639502968145</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>1.2709097694436502</v>
+        <v>2.6956721289182024</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5040,39 +4891,39 @@
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>1.1031476779977083E-2</v>
+        <v>2.5116953943912137E-2</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>3.0043923865300144</v>
+        <v>3.7122040072859743</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>4.1848124428179325</v>
+        <v>3.4462151394422307</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>1.5383423702556158</v>
+        <v>3.9101362862010225</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>0.78429124832002539</v>
+        <v>2.2793717536482809</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>0.77989649681528661</v>
+        <v>1.5971993410214167</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>1.0815591849983033</v>
+        <v>1.9304255319148935</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>1.0619445345442751</v>
+        <v>1.7590748286611635</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>1.1397679806317291</v>
+        <v>2.9677642721462725</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5086,39 +4937,39 @@
       </c>
       <c r="B22">
         <f>B13/$A22</f>
-        <v>8.6535072259428969E-2</v>
+        <v>0.24339393939393936</v>
       </c>
       <c r="C22">
         <f t="shared" ref="C22:J22" si="2">C13/$A22</f>
-        <v>0.32592121982210925</v>
+        <v>0.33398885611274992</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>0.36206760072825134</v>
+        <v>0.35395695228742119</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>0.39077564834126949</v>
+        <v>0.37310521396350632</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.39077086697916258</v>
+        <v>0.3744996444173524</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>0.41358184977126444</v>
+        <v>0.38778367226643085</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.41728760495232664</v>
+        <v>0.42206380034191215</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>0.38360076627005751</v>
+        <v>0.43720999068487904</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>0.38409978101494813</v>
+        <v>0.459638418897866</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5127,39 +4978,39 @@
       </c>
       <c r="B23">
         <f t="shared" ref="B23:J29" si="3">B14/$A23</f>
-        <v>7.5341414761393277E-2</v>
+        <v>0.14922711058263971</v>
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
-        <v>0.18563415958024243</v>
+        <v>0.18766114180478821</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>0.20494667981001885</v>
+        <v>0.19899696328333485</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>0.22156276496050695</v>
+        <v>0.1832169227699062</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>0.21964044545796707</v>
+        <v>0.18390907820950328</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>0.24896745415496452</v>
+        <v>0.18449465661087908</v>
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
-        <v>0.24900644705466748</v>
+        <v>0.2355094094743673</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>0.21685903061815895</v>
+        <v>0.23779483067754234</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>0.22616700390366928</v>
+        <v>0.24496949100177648</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5168,39 +5019,39 @@
       </c>
       <c r="B24">
         <f t="shared" si="3"/>
-        <v>7.2376179245283015E-2</v>
+        <v>7.0903954802259875E-2</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>0.18613933236574745</v>
+        <v>0.16558336041598959</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>0.20629622947862167</v>
+        <v>0.17470512199062851</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>0.22212777380100213</v>
+        <v>0.18394374098413208</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>0.20782880127372522</v>
+        <v>0.13102855030427116</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>0.19220052977533603</v>
+        <v>0.22458546695927822</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>0.20817809028329962</v>
+        <v>0.23382212715511688</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>0.20222454878997889</v>
+        <v>0.2382973137123407</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>0.19194782873489516</v>
+        <v>0.22132728541521282</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5209,39 +5060,39 @@
       </c>
       <c r="B25">
         <f t="shared" si="3"/>
-        <v>5.1532325776658269E-2</v>
+        <v>6.9877505567928724E-2</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>0.14039408866995073</v>
+        <v>0.16123417721518987</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>0.13545368396114665</v>
+        <v>0.17439516129032259</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>0.11495184293387664</v>
+        <v>0.18265557854528092</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>0.11257432708456265</v>
+        <v>0.18169361198738168</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>0.14331801954702408</v>
+        <v>0.19535591566622831</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>0.17045919601168219</v>
+        <v>0.19613904621903236</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>0.14409086507992397</v>
+        <v>0.19038875634363814</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>0.14668472375121946</v>
+        <v>0.20536791939703178</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5250,39 +5101,39 @@
       </c>
       <c r="B26">
         <f t="shared" si="3"/>
-        <v>1.5883799171842652E-2</v>
+        <v>6.7911255411255408E-2</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
-        <v>5.7744259342638445E-2</v>
+        <v>0.14967685076380727</v>
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>0.10041271513874253</v>
+        <v>0.15854105571847507</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>0.11027452025586353</v>
+        <v>6.5496233306700152E-2</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
-        <v>7.5937691365584814E-2</v>
+        <v>9.203719239373602E-2</v>
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
-        <v>8.106978514913761E-2</v>
+        <v>0.13771306818181819</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>8.9540297836580726E-2</v>
+        <v>0.14907005783385907</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>7.5193957795518643E-2</v>
+        <v>0.14310477804288688</v>
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>7.4547014514639728E-2</v>
+        <v>0.15261203797088282</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5291,39 +5142,39 @@
       </c>
       <c r="B27">
         <f t="shared" si="3"/>
-        <v>9.7189231987331731E-4</v>
+        <v>5.6328545780969477E-2</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>7.8971674876847295E-2</v>
+        <v>0.14408936651583709</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>9.192122186495176E-2</v>
+        <v>0.15643084490740741</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>9.5217091132249146E-2</v>
+        <v>8.9128999689344512E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>5.0968454582819574E-2</v>
+        <v>8.5965485074626855E-2</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
-        <v>4.7354198089492205E-2</v>
+        <v>8.2293155825589701E-2</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>4.338801397753745E-2</v>
+        <v>8.2254496663765594E-2</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>3.7368683571350307E-2</v>
+        <v>8.9506458879890491E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>3.7154361556458348E-2</v>
+        <v>7.4812521701061285E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5332,39 +5183,39 @@
       </c>
       <c r="B28">
         <f t="shared" si="3"/>
-        <v>9.5312600092789046E-4</v>
+        <v>5.5740617366200305E-2</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>7.3569482288828328E-2</v>
+        <v>0.14495021337126601</v>
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>8.949324985325767E-2</v>
+        <v>0.15677105988110773</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>4.4884196062123703E-2</v>
+        <v>8.7824523139910848E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>4.7132296348381328E-2</v>
+        <v>7.4436205615327447E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
-        <v>4.3354718208716093E-2</v>
+        <v>7.9220460859617578E-2</v>
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
-        <v>3.9232318777909544E-2</v>
+        <v>7.8292628731315109E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>3.3581383422014228E-2</v>
+        <v>8.4359577639389852E-2</v>
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
-        <v>3.3444993932727637E-2</v>
+        <v>7.0938740234689532E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5373,39 +5224,39 @@
       </c>
       <c r="B29">
         <f t="shared" si="3"/>
-        <v>1.9699065678530507E-4</v>
+        <v>4.4851703471271675E-4</v>
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
-        <v>5.3649864045178831E-2</v>
+        <v>6.6289357272963825E-2</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>7.4728793621748793E-2</v>
+        <v>6.1539556061468402E-2</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>2.7470399468850281E-2</v>
+        <v>6.9823862253589691E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>1.4005200862857597E-2</v>
+        <v>4.070306702943359E-2</v>
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
-        <v>1.3926723157415832E-2</v>
+        <v>2.852141680395387E-2</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
-        <v>1.93135568749697E-2</v>
+        <v>3.4471884498480244E-2</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>1.8963295259719199E-2</v>
+        <v>3.141205051180649E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
-        <v>2.0352999654138022E-2</v>
+        <v>5.299579057404058E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5419,39 +5270,39 @@
       </c>
       <c r="B31">
         <f>B4*$A31</f>
-        <v>1.1348E-2</v>
+        <v>4.1250000000000002E-3</v>
       </c>
       <c r="C31">
         <f t="shared" ref="C31:J31" si="4">C4*$A31</f>
-        <v>6.2960000000000004E-3</v>
+        <v>6.1019999999999998E-3</v>
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>1.2633000000000002E-2</v>
+        <v>1.2219000000000001E-2</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>2.5411000000000003E-2</v>
+        <v>2.4607E-2</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>5.0774E-2</v>
+        <v>4.9215000000000002E-2</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>9.4738199999999995E-2</v>
+        <v>9.5004000000000005E-2</v>
       </c>
       <c r="H31">
         <f t="shared" si="4"/>
-        <v>0.17567500000000003</v>
+        <v>0.17197399999999999</v>
       </c>
       <c r="I31">
         <f t="shared" si="4"/>
-        <v>0.34139400000000003</v>
+        <v>0.34460099999999999</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>0.68269500000000005</v>
+        <v>0.690025</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5460,39 +5311,39 @@
       </c>
       <c r="B32">
         <f t="shared" ref="B32:J38" si="5">B5*$A32</f>
-        <v>1.3034E-2</v>
+        <v>6.7279999999999996E-3</v>
       </c>
       <c r="C32">
         <f t="shared" si="5"/>
-        <v>1.1054000000000001E-2</v>
+        <v>1.086E-2</v>
       </c>
       <c r="D32">
         <f t="shared" si="5"/>
-        <v>2.2317999999999998E-2</v>
+        <v>2.1734E-2</v>
       </c>
       <c r="E32">
         <f t="shared" si="5"/>
-        <v>4.4817999999999997E-2</v>
+        <v>5.0110000000000002E-2</v>
       </c>
       <c r="F32">
         <f t="shared" si="5"/>
-        <v>9.0334000000000012E-2</v>
+        <v>0.100218</v>
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>0.15737799999999999</v>
+        <v>0.199686</v>
       </c>
       <c r="H32">
         <f t="shared" si="5"/>
-        <v>0.29439799999999999</v>
+        <v>0.30819999999999997</v>
       </c>
       <c r="I32">
         <f t="shared" si="5"/>
-        <v>0.60389000000000004</v>
+        <v>0.63358400000000004</v>
       </c>
       <c r="J32">
         <f t="shared" si="5"/>
-        <v>1.159422</v>
+        <v>1.2947</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -5501,39 +5352,39 @@
       </c>
       <c r="B33">
         <f t="shared" si="5"/>
-        <v>1.3568E-2</v>
+        <v>1.4160000000000001E-2</v>
       </c>
       <c r="C33">
         <f t="shared" si="5"/>
-        <v>1.1024000000000001E-2</v>
+        <v>1.2307999999999999E-2</v>
       </c>
       <c r="D33">
         <f t="shared" si="5"/>
-        <v>2.2172000000000001E-2</v>
+        <v>2.4756E-2</v>
       </c>
       <c r="E33">
         <f t="shared" si="5"/>
-        <v>4.4704000000000001E-2</v>
+        <v>4.9911999999999998E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="5"/>
-        <v>9.5468000000000011E-2</v>
+        <v>0.14066400000000001</v>
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>0.20385999999999999</v>
+        <v>0.16403999999999999</v>
       </c>
       <c r="H33">
         <f t="shared" si="5"/>
-        <v>0.352136</v>
+        <v>0.31042399999999998</v>
       </c>
       <c r="I33">
         <f t="shared" si="5"/>
-        <v>0.64759200000000006</v>
+        <v>0.63224800000000003</v>
       </c>
       <c r="J33">
         <f t="shared" si="5"/>
-        <v>1.3661160000000001</v>
+        <v>1.4330000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -5542,39 +5393,39 @@
       </c>
       <c r="B34">
         <f t="shared" si="5"/>
-        <v>1.9056E-2</v>
+        <v>1.4368000000000001E-2</v>
       </c>
       <c r="C34">
         <f t="shared" si="5"/>
-        <v>1.4616000000000001E-2</v>
+        <v>1.264E-2</v>
       </c>
       <c r="D34">
         <f t="shared" si="5"/>
-        <v>3.3767999999999999E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="E34">
         <f t="shared" si="5"/>
-        <v>8.6384000000000002E-2</v>
+        <v>5.0264000000000003E-2</v>
       </c>
       <c r="F34">
         <f t="shared" si="5"/>
-        <v>0.17624800000000002</v>
+        <v>0.10144</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>0.27339199999999997</v>
+        <v>0.188584</v>
       </c>
       <c r="H34">
         <f t="shared" si="5"/>
-        <v>0.43005599999999999</v>
+        <v>0.370064</v>
       </c>
       <c r="I34">
         <f t="shared" si="5"/>
-        <v>0.90886400000000001</v>
+        <v>0.79134400000000005</v>
       </c>
       <c r="J34">
         <f t="shared" si="5"/>
-        <v>1.7876640000000004</v>
+        <v>1.54436</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -5583,39 +5434,39 @@
       </c>
       <c r="B35">
         <f t="shared" si="5"/>
-        <v>6.1823999999999997E-2</v>
+        <v>1.4784E-2</v>
       </c>
       <c r="C35">
         <f t="shared" si="5"/>
-        <v>3.5536000000000005E-2</v>
+        <v>1.3616E-2</v>
       </c>
       <c r="D35">
         <f t="shared" si="5"/>
-        <v>4.5552000000000002E-2</v>
+        <v>2.7279999999999999E-2</v>
       </c>
       <c r="E35">
         <f t="shared" si="5"/>
-        <v>9.0048000000000003E-2</v>
+        <v>0.140176</v>
       </c>
       <c r="F35">
         <f t="shared" si="5"/>
-        <v>0.26128000000000001</v>
+        <v>0.20025599999999999</v>
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>0.48331200000000002</v>
+        <v>0.26751999999999998</v>
       </c>
       <c r="H35">
         <f t="shared" si="5"/>
-        <v>0.8187040000000001</v>
+        <v>0.48691200000000001</v>
       </c>
       <c r="I35">
         <f t="shared" si="5"/>
-        <v>1.7416160000000003</v>
+        <v>1.052816</v>
       </c>
       <c r="J35">
         <f t="shared" si="5"/>
-        <v>3.5175520000000002</v>
+        <v>2.0782240000000001</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -5624,39 +5475,39 @@
       </c>
       <c r="B36">
         <f t="shared" si="5"/>
-        <v>1.0104000000000002</v>
+        <v>1.7824E-2</v>
       </c>
       <c r="C36">
         <f t="shared" si="5"/>
-        <v>2.5984E-2</v>
+        <v>1.4144E-2</v>
       </c>
       <c r="D36">
         <f t="shared" si="5"/>
-        <v>4.9760000000000006E-2</v>
+        <v>2.7647999999999999E-2</v>
       </c>
       <c r="E36">
         <f t="shared" si="5"/>
-        <v>0.10428800000000001</v>
+        <v>0.103008</v>
       </c>
       <c r="F36">
         <f t="shared" si="5"/>
-        <v>0.38927999999999996</v>
+        <v>0.21440000000000001</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>0.82742400000000005</v>
+        <v>0.44768000000000002</v>
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
-        <v>1.689568</v>
+        <v>0.88243199999999999</v>
       </c>
       <c r="I36">
         <f t="shared" si="5"/>
-        <v>3.5045120000000001</v>
+        <v>1.6832640000000001</v>
       </c>
       <c r="J36">
         <f t="shared" si="5"/>
-        <v>7.0576639999999999</v>
+        <v>4.2394239999999996</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -5665,39 +5516,39 @@
       </c>
       <c r="B37">
         <f t="shared" si="5"/>
-        <v>1.030294</v>
+        <v>1.8012E-2</v>
       </c>
       <c r="C37">
         <f t="shared" si="5"/>
-        <v>2.7892000000000004E-2</v>
+        <v>1.406E-2</v>
       </c>
       <c r="D37">
         <f t="shared" si="5"/>
-        <v>5.1110000000000003E-2</v>
+        <v>2.7587999999999998E-2</v>
       </c>
       <c r="E37">
         <f t="shared" si="5"/>
-        <v>0.22123599999999999</v>
+        <v>0.10453799999999999</v>
       </c>
       <c r="F37">
         <f t="shared" si="5"/>
-        <v>0.42096400000000006</v>
+        <v>0.24760799999999999</v>
       </c>
       <c r="G37">
         <f t="shared" si="5"/>
-        <v>0.90375399999999995</v>
+        <v>0.46504400000000001</v>
       </c>
       <c r="H37">
         <f t="shared" si="5"/>
-        <v>1.868536</v>
+        <v>0.92708599999999997</v>
       </c>
       <c r="I37">
         <f t="shared" si="5"/>
-        <v>3.8997500000000009</v>
+        <v>1.785962</v>
       </c>
       <c r="J37">
         <f t="shared" si="5"/>
-        <v>7.8404260000000017</v>
+        <v>4.4709279999999998</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -5706,39 +5557,39 @@
       </c>
       <c r="B38">
         <f t="shared" si="5"/>
-        <v>4.9850079999999997</v>
+        <v>2.2384880000000003</v>
       </c>
       <c r="C38">
         <f t="shared" si="5"/>
-        <v>3.8248000000000004E-2</v>
+        <v>3.0744E-2</v>
       </c>
       <c r="D38">
         <f t="shared" si="5"/>
-        <v>6.1207999999999999E-2</v>
+        <v>7.0280000000000009E-2</v>
       </c>
       <c r="E38">
         <f t="shared" si="5"/>
-        <v>0.36147999999999997</v>
+        <v>0.13148799999999999</v>
       </c>
       <c r="F38">
         <f t="shared" si="5"/>
-        <v>1.4166879999999999</v>
+        <v>0.452816</v>
       </c>
       <c r="G38">
         <f t="shared" si="5"/>
-        <v>2.8134399999999999</v>
+        <v>1.291696</v>
       </c>
       <c r="H38">
         <f t="shared" si="5"/>
-        <v>3.7956240000000001</v>
+        <v>2.1055999999999999</v>
       </c>
       <c r="I38">
         <f t="shared" si="5"/>
-        <v>6.9059200000000009</v>
+        <v>4.7963440000000004</v>
       </c>
       <c r="J38">
         <f t="shared" si="5"/>
-        <v>12.883752000000001</v>
+        <v>5.9846640000000004</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -5752,39 +5603,39 @@
       </c>
       <c r="B40">
         <f>B31-B$2</f>
-        <v>1.0366E-2</v>
+        <v>3.1210000000000005E-3</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:J40" si="6">C31-C$2</f>
-        <v>4.2440000000000004E-3</v>
+        <v>4.0639999999999999E-3</v>
       </c>
       <c r="D40">
         <f t="shared" si="6"/>
-        <v>8.0590000000000019E-3</v>
+        <v>7.8940000000000017E-3</v>
       </c>
       <c r="E40">
         <f t="shared" si="6"/>
-        <v>1.5481000000000003E-2</v>
+        <v>1.5426E-2</v>
       </c>
       <c r="F40">
         <f t="shared" si="6"/>
-        <v>3.0932999999999999E-2</v>
+        <v>3.0784000000000002E-2</v>
       </c>
       <c r="G40">
         <f t="shared" si="6"/>
-        <v>5.5556199999999993E-2</v>
+        <v>5.8163000000000006E-2</v>
       </c>
       <c r="H40">
         <f t="shared" si="6"/>
-        <v>0.10236800000000003</v>
+        <v>9.9389999999999992E-2</v>
       </c>
       <c r="I40">
         <f t="shared" si="6"/>
-        <v>0.21043500000000001</v>
+        <v>0.193938</v>
       </c>
       <c r="J40">
         <f t="shared" si="6"/>
-        <v>0.42047200000000001</v>
+        <v>0.372863</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -5793,39 +5644,39 @@
       </c>
       <c r="B41">
         <f t="shared" ref="B41:J47" si="7">B32-B$2</f>
-        <v>1.2052E-2</v>
+        <v>5.7239999999999999E-3</v>
       </c>
       <c r="C41">
         <f t="shared" si="7"/>
-        <v>9.0020000000000013E-3</v>
+        <v>8.822E-3</v>
       </c>
       <c r="D41">
         <f t="shared" si="7"/>
-        <v>1.7743999999999996E-2</v>
+        <v>1.7409000000000001E-2</v>
       </c>
       <c r="E41">
         <f t="shared" si="7"/>
-        <v>3.4887999999999995E-2</v>
+        <v>4.0929E-2</v>
       </c>
       <c r="F41">
         <f t="shared" si="7"/>
-        <v>7.0493000000000014E-2</v>
+        <v>8.1786999999999999E-2</v>
       </c>
       <c r="G41">
         <f t="shared" si="7"/>
-        <v>0.118196</v>
+        <v>0.16284500000000002</v>
       </c>
       <c r="H41">
         <f t="shared" si="7"/>
-        <v>0.22109099999999998</v>
+        <v>0.23561599999999999</v>
       </c>
       <c r="I41">
         <f t="shared" si="7"/>
-        <v>0.47293099999999999</v>
+        <v>0.48292100000000004</v>
       </c>
       <c r="J41">
         <f t="shared" si="7"/>
-        <v>0.89719899999999986</v>
+        <v>0.97753800000000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -5834,39 +5685,39 @@
       </c>
       <c r="B42">
         <f t="shared" si="7"/>
-        <v>1.2586E-2</v>
+        <v>1.3156000000000001E-2</v>
       </c>
       <c r="C42">
         <f t="shared" si="7"/>
-        <v>8.9720000000000008E-3</v>
+        <v>1.027E-2</v>
       </c>
       <c r="D42">
         <f t="shared" si="7"/>
-        <v>1.7598000000000003E-2</v>
+        <v>2.0431000000000001E-2</v>
       </c>
       <c r="E42">
         <f t="shared" si="7"/>
-        <v>3.4773999999999999E-2</v>
+        <v>4.0730999999999996E-2</v>
       </c>
       <c r="F42">
         <f t="shared" si="7"/>
-        <v>7.5627000000000014E-2</v>
+        <v>0.12223300000000001</v>
       </c>
       <c r="G42">
         <f t="shared" si="7"/>
-        <v>0.16467799999999999</v>
+        <v>0.12719900000000001</v>
       </c>
       <c r="H42">
         <f t="shared" si="7"/>
-        <v>0.27882899999999999</v>
+        <v>0.23784</v>
       </c>
       <c r="I42">
         <f t="shared" si="7"/>
-        <v>0.51663300000000001</v>
+        <v>0.48158500000000004</v>
       </c>
       <c r="J42">
         <f t="shared" si="7"/>
-        <v>1.103893</v>
+        <v>1.1158380000000001</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -5875,39 +5726,39 @@
       </c>
       <c r="B43">
         <f t="shared" si="7"/>
-        <v>1.8074E-2</v>
+        <v>1.3364000000000001E-2</v>
       </c>
       <c r="C43">
         <f t="shared" si="7"/>
-        <v>1.2564000000000001E-2</v>
+        <v>1.0602E-2</v>
       </c>
       <c r="D43">
         <f t="shared" si="7"/>
-        <v>2.9193999999999998E-2</v>
+        <v>2.0475E-2</v>
       </c>
       <c r="E43">
         <f t="shared" si="7"/>
-        <v>7.6454000000000008E-2</v>
+        <v>4.1083000000000001E-2</v>
       </c>
       <c r="F43">
         <f t="shared" si="7"/>
-        <v>0.15640700000000002</v>
+        <v>8.3008999999999999E-2</v>
       </c>
       <c r="G43">
         <f t="shared" si="7"/>
-        <v>0.23420999999999997</v>
+        <v>0.15174300000000002</v>
       </c>
       <c r="H43">
         <f t="shared" si="7"/>
-        <v>0.35674899999999998</v>
+        <v>0.29748000000000002</v>
       </c>
       <c r="I43">
         <f t="shared" si="7"/>
-        <v>0.77790499999999996</v>
+        <v>0.64068100000000006</v>
       </c>
       <c r="J43">
         <f t="shared" si="7"/>
-        <v>1.5254410000000003</v>
+        <v>1.227198</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -5916,39 +5767,39 @@
       </c>
       <c r="B44">
         <f t="shared" si="7"/>
-        <v>6.0842E-2</v>
+        <v>1.3780000000000001E-2</v>
       </c>
       <c r="C44">
         <f t="shared" si="7"/>
-        <v>3.3484000000000007E-2</v>
+        <v>1.1578E-2</v>
       </c>
       <c r="D44">
         <f t="shared" si="7"/>
-        <v>4.0978000000000001E-2</v>
+        <v>2.2955E-2</v>
       </c>
       <c r="E44">
         <f t="shared" si="7"/>
-        <v>8.0118000000000009E-2</v>
+        <v>0.130995</v>
       </c>
       <c r="F44">
         <f t="shared" si="7"/>
-        <v>0.24143900000000001</v>
+        <v>0.18182499999999999</v>
       </c>
       <c r="G44">
         <f t="shared" si="7"/>
-        <v>0.44413000000000002</v>
+        <v>0.23067899999999997</v>
       </c>
       <c r="H44">
         <f t="shared" si="7"/>
-        <v>0.74539700000000009</v>
+        <v>0.41432800000000003</v>
       </c>
       <c r="I44">
         <f t="shared" si="7"/>
-        <v>1.6106570000000002</v>
+        <v>0.90215299999999998</v>
       </c>
       <c r="J44">
         <f t="shared" si="7"/>
-        <v>3.2553290000000001</v>
+        <v>1.7610620000000001</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -5957,39 +5808,39 @@
       </c>
       <c r="B45">
         <f t="shared" si="7"/>
-        <v>1.0094180000000001</v>
+        <v>1.6819999999999998E-2</v>
       </c>
       <c r="C45">
         <f t="shared" si="7"/>
-        <v>2.3932000000000002E-2</v>
+        <v>1.2106E-2</v>
       </c>
       <c r="D45">
         <f t="shared" si="7"/>
-        <v>4.5186000000000004E-2</v>
+        <v>2.3323E-2</v>
       </c>
       <c r="E45">
         <f t="shared" si="7"/>
-        <v>9.4358000000000011E-2</v>
+        <v>9.3827000000000008E-2</v>
       </c>
       <c r="F45">
         <f t="shared" si="7"/>
-        <v>0.36943899999999996</v>
+        <v>0.195969</v>
       </c>
       <c r="G45">
         <f t="shared" si="7"/>
-        <v>0.788242</v>
+        <v>0.41083900000000001</v>
       </c>
       <c r="H45">
         <f t="shared" si="7"/>
-        <v>1.6162609999999999</v>
+        <v>0.80984800000000001</v>
       </c>
       <c r="I45">
         <f t="shared" si="7"/>
-        <v>3.3735530000000002</v>
+        <v>1.5326010000000001</v>
       </c>
       <c r="J45">
         <f t="shared" si="7"/>
-        <v>6.7954410000000003</v>
+        <v>3.9222619999999995</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -5998,39 +5849,39 @@
       </c>
       <c r="B46">
         <f t="shared" si="7"/>
-        <v>1.029312</v>
+        <v>1.7007999999999999E-2</v>
       </c>
       <c r="C46">
         <f t="shared" si="7"/>
-        <v>2.5840000000000002E-2</v>
+        <v>1.2022E-2</v>
       </c>
       <c r="D46">
         <f t="shared" si="7"/>
-        <v>4.6536000000000001E-2</v>
+        <v>2.3262999999999999E-2</v>
       </c>
       <c r="E46">
         <f t="shared" si="7"/>
-        <v>0.21130599999999999</v>
+        <v>9.5356999999999997E-2</v>
       </c>
       <c r="F46">
         <f t="shared" si="7"/>
-        <v>0.40112300000000006</v>
+        <v>0.22917699999999999</v>
       </c>
       <c r="G46">
         <f t="shared" si="7"/>
-        <v>0.8645719999999999</v>
+        <v>0.428203</v>
       </c>
       <c r="H46">
         <f t="shared" si="7"/>
-        <v>1.795229</v>
+        <v>0.85450199999999998</v>
       </c>
       <c r="I46">
         <f t="shared" si="7"/>
-        <v>3.7687910000000011</v>
+        <v>1.6352990000000001</v>
       </c>
       <c r="J46">
         <f t="shared" si="7"/>
-        <v>7.578203000000002</v>
+        <v>4.1537660000000001</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -6039,39 +5890,39 @@
       </c>
       <c r="B47">
         <f t="shared" si="7"/>
-        <v>4.9840260000000001</v>
+        <v>2.2374840000000003</v>
       </c>
       <c r="C47">
         <f t="shared" si="7"/>
-        <v>3.6196000000000006E-2</v>
+        <v>2.8706000000000002E-2</v>
       </c>
       <c r="D47">
         <f t="shared" si="7"/>
-        <v>5.6633999999999997E-2</v>
+        <v>6.5955000000000014E-2</v>
       </c>
       <c r="E47">
         <f t="shared" si="7"/>
-        <v>0.35154999999999997</v>
+        <v>0.122307</v>
       </c>
       <c r="F47">
         <f t="shared" si="7"/>
-        <v>1.3968469999999999</v>
+        <v>0.43438500000000002</v>
       </c>
       <c r="G47">
         <f t="shared" si="7"/>
-        <v>2.7742580000000001</v>
+        <v>1.2548550000000001</v>
       </c>
       <c r="H47">
         <f t="shared" si="7"/>
-        <v>3.7223170000000003</v>
+        <v>2.0330159999999999</v>
       </c>
       <c r="I47">
         <f t="shared" si="7"/>
-        <v>6.7749610000000011</v>
+        <v>4.6456810000000006</v>
       </c>
       <c r="J47">
         <f t="shared" si="7"/>
-        <v>12.621529000000001</v>
+        <v>5.6675020000000007</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -6126,39 +5977,39 @@
       </c>
       <c r="B50">
         <f t="shared" ref="B50:J56" si="9">(1/B14-1/$A50)/(1-1/$A50)</f>
-        <v>12.272912423625256</v>
+        <v>5.7011952191235062</v>
       </c>
       <c r="C50">
         <f t="shared" si="9"/>
-        <v>4.3869395711500978</v>
+        <v>4.328753680078508</v>
       </c>
       <c r="D50">
         <f t="shared" si="9"/>
-        <v>3.8793178836904234</v>
+        <v>4.0252023121387284</v>
       </c>
       <c r="E50">
         <f t="shared" si="9"/>
-        <v>3.5133937562940583</v>
+        <v>4.4580111099008821</v>
       </c>
       <c r="F50">
         <f t="shared" si="9"/>
-        <v>3.5528955193790646</v>
+        <v>4.4374694807661008</v>
       </c>
       <c r="G50">
         <f t="shared" si="9"/>
-        <v>3.0165892501658922</v>
+        <v>4.4202111777639042</v>
       </c>
       <c r="H50">
         <f t="shared" si="9"/>
-        <v>3.0159602766447957</v>
+        <v>3.2461148462471066</v>
       </c>
       <c r="I50">
         <f t="shared" si="9"/>
-        <v>3.611290556586412</v>
+        <v>3.2053058813378206</v>
       </c>
       <c r="J50">
         <f t="shared" si="9"/>
-        <v>3.4215114616185449</v>
+        <v>3.0821409878863166</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -6167,39 +6018,39 @@
       </c>
       <c r="B51">
         <f t="shared" si="9"/>
-        <v>4.2722335369993214</v>
+        <v>4.3678618857901732</v>
       </c>
       <c r="C51">
         <f t="shared" si="9"/>
-        <v>1.4574398960363872</v>
+        <v>1.679751390251881</v>
       </c>
       <c r="D51">
         <f t="shared" si="9"/>
-        <v>1.2824661128115435</v>
+        <v>1.5746435452793837</v>
       </c>
       <c r="E51">
         <f t="shared" si="9"/>
-        <v>1.1673044645854314</v>
+        <v>1.4788149439058926</v>
       </c>
       <c r="F51">
         <f t="shared" si="9"/>
-        <v>1.2705508794919611</v>
+        <v>2.2106414916897257</v>
       </c>
       <c r="G51">
         <f t="shared" si="9"/>
-        <v>1.4009664301635103</v>
+        <v>1.1508826217167467</v>
       </c>
       <c r="H51">
         <f t="shared" si="9"/>
-        <v>1.2678598223907678</v>
+        <v>1.0922517359197619</v>
       </c>
       <c r="I51">
         <f t="shared" si="9"/>
-        <v>1.3149993509418978</v>
+        <v>1.0654794696331107</v>
       </c>
       <c r="J51">
         <f t="shared" si="9"/>
-        <v>1.4032496513781523</v>
+        <v>1.1727319161816361</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -6208,39 +6059,39 @@
       </c>
       <c r="B52">
         <f t="shared" si="9"/>
-        <v>2.629327902240326</v>
+        <v>1.9015367103016507</v>
       </c>
       <c r="C52">
         <f t="shared" si="9"/>
-        <v>0.87468671679197996</v>
+        <v>0.74316556848450865</v>
       </c>
       <c r="D52">
         <f t="shared" si="9"/>
-        <v>0.91179961271784615</v>
+        <v>0.67630057803468202</v>
       </c>
       <c r="E52">
         <f t="shared" si="9"/>
-        <v>1.0998992950654582</v>
+        <v>0.63925498311730755</v>
       </c>
       <c r="F52">
         <f t="shared" si="9"/>
-        <v>1.126145715581732</v>
+        <v>0.64339583155708169</v>
       </c>
       <c r="G52">
         <f t="shared" si="9"/>
-        <v>0.85392709480300699</v>
+        <v>0.58840887675609854</v>
       </c>
       <c r="H52">
         <f t="shared" si="9"/>
-        <v>0.69521522988449747</v>
+        <v>0.58548912786761353</v>
       </c>
       <c r="I52">
         <f t="shared" si="9"/>
-        <v>0.84858074446418885</v>
+        <v>0.60748728714320799</v>
       </c>
       <c r="J52">
         <f t="shared" si="9"/>
-        <v>0.83104892727618418</v>
+        <v>0.55275852718799856</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -6249,39 +6100,39 @@
       </c>
       <c r="B53">
         <f t="shared" si="9"/>
-        <v>4.1304820095044121</v>
+        <v>0.91500664010624178</v>
       </c>
       <c r="C53">
         <f t="shared" si="9"/>
-        <v>1.0878492527615335</v>
+        <v>0.37873732417402689</v>
       </c>
       <c r="D53">
         <f t="shared" si="9"/>
-        <v>0.59725987465384056</v>
+        <v>0.35383429672447014</v>
       </c>
       <c r="E53">
         <f t="shared" si="9"/>
-        <v>0.5378851963746224</v>
+        <v>0.95120357259557775</v>
       </c>
       <c r="F53">
         <f t="shared" si="9"/>
-        <v>0.81124607294659201</v>
+        <v>0.65767818711229264</v>
       </c>
       <c r="G53">
         <f t="shared" si="9"/>
-        <v>0.75567012063362438</v>
+        <v>0.41743166580711699</v>
       </c>
       <c r="H53">
         <f t="shared" si="9"/>
-        <v>0.6778770558518743</v>
+        <v>0.38055035085785671</v>
       </c>
       <c r="I53">
         <f t="shared" si="9"/>
-        <v>0.81992939265978926</v>
+        <v>0.39919245822354088</v>
       </c>
       <c r="J53">
         <f t="shared" si="9"/>
-        <v>0.82762356213350208</v>
+        <v>0.37017086956613127</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -6290,39 +6141,39 @@
       </c>
       <c r="B54">
         <f t="shared" si="9"/>
-        <v>33.158728073056963</v>
+        <v>0.54041896928415378</v>
       </c>
       <c r="C54">
         <f t="shared" si="9"/>
-        <v>0.37621832358674462</v>
+        <v>0.19161733514831114</v>
       </c>
       <c r="D54">
         <f t="shared" si="9"/>
-        <v>0.31867356869825242</v>
+        <v>0.17395487600223752</v>
       </c>
       <c r="E54">
         <f t="shared" si="9"/>
-        <v>0.30652632946756325</v>
+        <v>0.32966751109408987</v>
       </c>
       <c r="F54">
         <f t="shared" si="9"/>
-        <v>0.60064447844232605</v>
+        <v>0.3429863081309365</v>
       </c>
       <c r="G54">
         <f t="shared" si="9"/>
-        <v>0.64895006100562957</v>
+        <v>0.35973157535739902</v>
       </c>
       <c r="H54">
         <f t="shared" si="9"/>
-        <v>0.71122064213381031</v>
+        <v>0.3599158083359702</v>
       </c>
       <c r="I54">
         <f t="shared" si="9"/>
-        <v>0.8309798511181411</v>
+        <v>0.3281412286724934</v>
       </c>
       <c r="J54">
         <f t="shared" si="9"/>
-        <v>0.83595937119760022</v>
+        <v>0.39892730101702367</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -6331,39 +6182,39 @@
       </c>
       <c r="B55">
         <f t="shared" si="9"/>
-        <v>28.329168272141793</v>
+        <v>0.45784429848174873</v>
       </c>
       <c r="C55">
         <f t="shared" si="9"/>
-        <v>0.34034034034034033</v>
+        <v>0.15943028406227622</v>
       </c>
       <c r="D55">
         <f t="shared" si="9"/>
-        <v>0.27497370566893958</v>
+        <v>0.14537103577566005</v>
       </c>
       <c r="E55">
         <f t="shared" si="9"/>
-        <v>0.57512315941318959</v>
+        <v>0.28071192857163885</v>
       </c>
       <c r="F55">
         <f t="shared" si="9"/>
-        <v>0.54640200404022798</v>
+        <v>0.33606277320671546</v>
       </c>
       <c r="G55">
         <f t="shared" si="9"/>
-        <v>0.59636595403018755</v>
+        <v>0.31413517695106141</v>
       </c>
       <c r="H55">
         <f t="shared" si="9"/>
-        <v>0.66186998107551398</v>
+        <v>0.31817823003208207</v>
       </c>
       <c r="I55">
         <f t="shared" si="9"/>
-        <v>0.77779470075532209</v>
+        <v>0.29335185327698426</v>
       </c>
       <c r="J55">
         <f t="shared" si="9"/>
-        <v>0.78107678310940409</v>
+        <v>0.35396404974727724</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -6372,39 +6223,39 @@
       </c>
       <c r="B56">
         <f t="shared" si="9"/>
-        <v>92.279688946491405</v>
+        <v>40.519449474827965</v>
       </c>
       <c r="C56">
         <f t="shared" si="9"/>
-        <v>0.32071593124224707</v>
+        <v>0.25609777857079136</v>
       </c>
       <c r="D56">
         <f t="shared" si="9"/>
-        <v>0.22512223238064952</v>
+        <v>0.27726747241198113</v>
       </c>
       <c r="E56">
         <f t="shared" si="9"/>
-        <v>0.64368763160303943</v>
+        <v>0.24221366260359831</v>
       </c>
       <c r="F56">
         <f t="shared" si="9"/>
-        <v>1.2800372048696225</v>
+        <v>0.42851223975416913</v>
       </c>
       <c r="G56">
         <f t="shared" si="9"/>
-        <v>1.2873527269014993</v>
+        <v>0.6192976698391861</v>
       </c>
       <c r="H56">
         <f t="shared" si="9"/>
-        <v>0.92322003231739003</v>
+        <v>0.5092572367564101</v>
       </c>
       <c r="I56">
         <f t="shared" si="9"/>
-        <v>0.94060819867980883</v>
+        <v>0.56063484248108209</v>
       </c>
       <c r="J56">
         <f t="shared" si="9"/>
-        <v>0.87514194199038775</v>
+        <v>0.32489860358142186</v>
       </c>
     </row>
   </sheetData>
